--- a/factors/dem_factors.xlsx
+++ b/factors/dem_factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leveophan/diplom/Лев-Семин_материалы-для-дипломной-работы/01_исходные-данные_орс-росстата/микроданные-2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leveophan/diplom_clear/factors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D0CCB5-A0AF-4644-84FD-00DCA7F726CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F4570C-EC1C-C34A-A6EA-ACFA233FA1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="920" windowWidth="17060" windowHeight="19620" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="920" windowWidth="17060" windowHeight="19620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dem_factors" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>Возрастные коэффициенты смертности (на 1000 человек)</t>
   </si>
@@ -194,6 +194,12 @@
       </rPr>
       <t>579</t>
     </r>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>61.5</t>
   </si>
 </sst>
 </file>
@@ -480,7 +486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -798,6 +804,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1107,8 +1116,8 @@
   </sheetPr>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1119,7 +1128,7 @@
     <col min="8" max="8" width="15.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="48" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" style="101" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="14" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1230,10 +1239,10 @@
       <c r="J3" s="86">
         <v>1.9</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="109">
         <v>60</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="109">
         <v>55</v>
       </c>
     </row>
@@ -1268,10 +1277,10 @@
       <c r="J4" s="87">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="109">
         <v>60</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="109">
         <v>55</v>
       </c>
     </row>
@@ -1306,10 +1315,10 @@
       <c r="J5" s="88">
         <v>2.1</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="109">
         <v>60</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="109">
         <v>55</v>
       </c>
     </row>
@@ -1344,10 +1353,10 @@
       <c r="J6" s="88">
         <v>2.1</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="109">
         <v>60</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="109">
         <v>55</v>
       </c>
     </row>
@@ -1382,10 +1391,10 @@
       <c r="J7" s="87">
         <v>1.9</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="109">
         <v>60</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="109">
         <v>55</v>
       </c>
     </row>
@@ -1420,10 +1429,10 @@
       <c r="J8" s="86">
         <v>1.7</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="109">
         <v>60</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="109">
         <v>55</v>
       </c>
     </row>
@@ -1458,10 +1467,10 @@
       <c r="J9" s="86">
         <v>1.8</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="109">
         <v>60</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="109">
         <v>55</v>
       </c>
     </row>
@@ -1496,10 +1505,10 @@
       <c r="J10" s="86">
         <v>1.4</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="109">
         <v>60</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="109">
         <v>55</v>
       </c>
     </row>
@@ -1534,10 +1543,10 @@
       <c r="J11" s="87">
         <v>0.9</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="109">
         <v>60</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="109">
         <v>55</v>
       </c>
     </row>
@@ -1572,10 +1581,10 @@
       <c r="J12" s="87">
         <v>1.9</v>
       </c>
-      <c r="K12" s="49">
-        <v>60.5</v>
-      </c>
-      <c r="L12" s="49">
+      <c r="K12" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="109">
         <v>55.5</v>
       </c>
     </row>
@@ -1610,11 +1619,11 @@
       <c r="J13" s="88">
         <v>1.3</v>
       </c>
-      <c r="K13" s="49">
-        <v>61.5</v>
-      </c>
-      <c r="L13" s="49">
-        <v>56.5</v>
+      <c r="K13" s="109">
+        <v>61</v>
+      </c>
+      <c r="L13" s="109">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1648,11 +1657,11 @@
       <c r="J14" s="87">
         <v>3.9</v>
       </c>
-      <c r="K14" s="17">
-        <v>63</v>
-      </c>
-      <c r="L14" s="17">
-        <v>58</v>
+      <c r="K14" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="109">
+        <v>56.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1686,11 +1695,11 @@
       <c r="J15" s="87">
         <v>0.4</v>
       </c>
-      <c r="K15" s="17">
-        <v>64</v>
-      </c>
-      <c r="L15" s="17">
-        <v>59</v>
+      <c r="K15" s="109">
+        <v>62</v>
+      </c>
+      <c r="L15" s="109">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1724,11 +1733,11 @@
       <c r="J16" s="87">
         <v>1.4</v>
       </c>
-      <c r="K16" s="17">
-        <v>65</v>
-      </c>
-      <c r="L16" s="17">
-        <v>60</v>
+      <c r="K16" s="109">
+        <v>62.5</v>
+      </c>
+      <c r="L16" s="109">
+        <v>57.5</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1762,11 +1771,11 @@
       <c r="J17" s="94">
         <v>1.55531535182507</v>
       </c>
-      <c r="K17" s="17">
-        <v>65</v>
-      </c>
-      <c r="L17" s="17">
-        <v>60</v>
+      <c r="K17" s="109">
+        <v>63</v>
+      </c>
+      <c r="L17" s="109">
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1800,11 +1809,11 @@
       <c r="J18" s="94">
         <v>1.5154657155923399</v>
       </c>
-      <c r="K18" s="17">
-        <v>65</v>
-      </c>
-      <c r="L18" s="17">
-        <v>60</v>
+      <c r="K18" s="109">
+        <v>63.5</v>
+      </c>
+      <c r="L18" s="109">
+        <v>58.5</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1838,11 +1847,11 @@
       <c r="J19" s="94">
         <v>1.48526480907527</v>
       </c>
-      <c r="K19" s="17">
-        <v>65</v>
-      </c>
-      <c r="L19" s="17">
-        <v>60</v>
+      <c r="K19" s="109">
+        <v>64</v>
+      </c>
+      <c r="L19" s="109">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1876,11 +1885,11 @@
       <c r="J20" s="94">
         <v>1.4660729566565001</v>
       </c>
-      <c r="K20" s="17">
-        <v>65</v>
-      </c>
-      <c r="L20" s="17">
-        <v>60</v>
+      <c r="K20" s="109">
+        <v>64.5</v>
+      </c>
+      <c r="L20" s="109">
+        <v>59.5</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1914,10 +1923,10 @@
       <c r="J21" s="94">
         <v>1.4717581267473701</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="109">
         <v>65</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="109">
         <v>60</v>
       </c>
     </row>
@@ -1952,10 +1961,10 @@
       <c r="J22" s="94">
         <v>1.4779857364634501</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="109">
         <v>65</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="109">
         <v>60</v>
       </c>
     </row>
@@ -1990,10 +1999,10 @@
       <c r="J23" s="94">
         <v>1.4847628567758799</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="109">
         <v>65</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2028,10 +2037,10 @@
       <c r="J24" s="94">
         <v>1.5026401232921101</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="109">
         <v>65</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2066,10 +2075,10 @@
       <c r="J25" s="94">
         <v>1.5092193003093599</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="109">
         <v>65</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2104,10 +2113,10 @@
       <c r="J26" s="94">
         <v>1.51560822935829</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="109">
         <v>65</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2142,10 +2151,10 @@
       <c r="J27" s="94">
         <v>1.5209576525565001</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="109">
         <v>65</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L27" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2180,10 +2189,10 @@
       <c r="J28" s="94">
         <v>1.5281785795937599</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="109">
         <v>65</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L28" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2218,10 +2227,10 @@
       <c r="J29" s="94">
         <v>1.53515461504083</v>
       </c>
-      <c r="K29" s="17">
+      <c r="K29" s="109">
         <v>65</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L29" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2256,10 +2265,10 @@
       <c r="J30" s="94">
         <v>1.5411694120524</v>
       </c>
-      <c r="K30" s="17">
+      <c r="K30" s="109">
         <v>65</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L30" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2294,10 +2303,10 @@
       <c r="J31" s="94">
         <v>1.5475752991884</v>
       </c>
-      <c r="K31" s="17">
+      <c r="K31" s="109">
         <v>65</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2332,10 +2341,10 @@
       <c r="J32" s="94">
         <v>1.5545054261442299</v>
       </c>
-      <c r="K32" s="17">
+      <c r="K32" s="109">
         <v>65</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L32" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2370,10 +2379,10 @@
       <c r="J33" s="94">
         <v>1.5620399985136999</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="109">
         <v>65</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2408,10 +2417,10 @@
       <c r="J34" s="94">
         <v>1.56806107923539</v>
       </c>
-      <c r="K34" s="17">
+      <c r="K34" s="109">
         <v>65</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L34" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2446,10 +2455,10 @@
       <c r="J35" s="94">
         <v>1.57467898982587</v>
       </c>
-      <c r="K35" s="17">
+      <c r="K35" s="109">
         <v>65</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L35" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2484,10 +2493,10 @@
       <c r="J36" s="94">
         <v>1.5819059813846099</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="109">
         <v>65</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2522,10 +2531,10 @@
       <c r="J37" s="94">
         <v>1.5898125501757601</v>
       </c>
-      <c r="K37" s="17">
+      <c r="K37" s="109">
         <v>65</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L37" s="109">
         <v>60</v>
       </c>
     </row>
@@ -2560,10 +2569,10 @@
       <c r="J38" s="99">
         <v>1.5962358197333</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="109">
         <v>65</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="109">
         <v>60</v>
       </c>
     </row>
@@ -4075,8 +4084,8 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
